--- a/biology/Zoologie/Hyla_savignyi/Hyla_savignyi.xlsx
+++ b/biology/Zoologie/Hyla_savignyi/Hyla_savignyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyla savignyi est une espèce d'amphibiens de la famille des Hylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyla savignyi est une espèce d'amphibiens de la famille des Hylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre en Asie occidentale et dans le sud de la Transcaucasie, de 400 m en dessous du niveau de la mer en Jordanie à plus de 1 800 m d'altitude[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre en Asie occidentale et dans le sud de la Transcaucasie, de 400 m en dessous du niveau de la mer en Jordanie à plus de 1 800 m d'altitude, :
 à Chypre ;
 au Liban ;
 dans l'ouest de la Jordanie ;
@@ -553,7 +567,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle mesure de 30 à 47 mm.
 </t>
@@ -584,9 +600,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les études génétiques de Stöck, Dubey, Klütsch, Litvinchuk, Scheidt et Perrin en 2008[3] puis de Gvoždík, Moravec, Klütsch et Kotlík en 2010[4] ont montré que deux espèces distinctes étaient auparavant confondues : Hyla savignyi et Hyla felixarabica.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les études génétiques de Stöck, Dubey, Klütsch, Litvinchuk, Scheidt et Perrin en 2008 puis de Gvoždík, Moravec, Klütsch et Kotlík en 2010 ont montré que deux espèces distinctes étaient auparavant confondues : Hyla savignyi et Hyla felixarabica.
 </t>
         </is>
       </c>
@@ -615,9 +633,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jules-César Savigny[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jules-César Savigny.
 </t>
         </is>
       </c>
@@ -646,7 +666,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Audouin, 1827 : Explication sommaire des planches de Reptiles (supplément) ... offrant un exposé des caractères naturelles des genres, avec la distinction des espèces, Description de l'Égypte, ou Recueil des Observations et des Recherches qui ont été faites en Égypte pendant l'expédition de l'Armée Française, publie par les Ordres de sa Majesté l'Empereur Napoléon le Grand. Histoire Naturelle, vol. 1 (Histoire Naturelle), fasc. 4, p. 161-184 (texte intégral).</t>
         </is>
